--- a/data/ncis-sprint-burndowns.xlsx
+++ b/data/ncis-sprint-burndowns.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A524DD5B-922F-497D-8D8A-D990C5F91ACF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB820EE-FDAC-42FD-A82E-76FCE2DA7FAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEV Burndown" sheetId="7" r:id="rId1"/>
+    <sheet name="Development Burndown" sheetId="7" r:id="rId1"/>
     <sheet name="QA Burndown" sheetId="10" r:id="rId2"/>
     <sheet name="Data" sheetId="5" r:id="rId3"/>
     <sheet name="SP" sheetId="8" r:id="rId4"/>
@@ -617,7 +617,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DEV Burndown</a:t>
+              <a:t>Development Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -669,7 +669,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DEV Burndown'!$C$1</c:f>
+              <c:f>'Development Burndown'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -719,7 +719,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
+              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -767,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DEV Burndown'!$C$2:$C$14</c:f>
+              <c:f>'Development Burndown'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -824,7 +824,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DEV Burndown'!$D$1</c:f>
+              <c:f>'Development Burndown'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -874,7 +874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
+              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -922,7 +922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DEV Burndown'!$D$2:$D$14</c:f>
+              <c:f>'Development Burndown'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -996,7 +996,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'DEV Burndown'!$B$1</c15:sqref>
+                          <c15:sqref>'Development Burndown'!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1052,7 +1052,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'DEV Burndown'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'Development Burndown'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1106,7 +1106,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'DEV Burndown'!$B$2:$B$14</c15:sqref>
+                          <c15:sqref>'Development Burndown'!$B$2:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1169,146 +1169,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DEV Burndown'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Burnt Carries (US)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DEV Burndown'!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E770-4C8B-934E-95F9646C82C1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DEV Burndown'!$G$1</c:f>
+              <c:f>'Development Burndown'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1337,7 +1202,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
+              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1385,7 +1250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DEV Burndown'!$G$2:$G$14</c:f>
+              <c:f>'Development Burndown'!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1443,7 +1308,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DEV Burndown'!$H$1</c:f>
+              <c:f>'Development Burndown'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1474,7 +1339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'DEV Burndown'!$A$2:$A$14</c:f>
+              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1522,7 +1387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DEV Burndown'!$H$2:$H$14</c:f>
+              <c:f>'Development Burndown'!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1598,7 +1463,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'DEV Burndown'!$F$1</c15:sqref>
+                          <c15:sqref>'Development Burndown'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1633,7 +1498,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'DEV Burndown'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'Development Burndown'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1687,7 +1552,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'DEV Burndown'!$F$2:$F$14</c15:sqref>
+                          <c15:sqref>'Development Burndown'!$F$2:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1747,6 +1612,158 @@
           </c:ext>
         </c:extLst>
       </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Development Burndown'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burnt Carries (US)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Development Burndown'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E770-4C8B-934E-95F9646C82C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1241629968"/>
+        <c:axId val="1094115616"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="629179296"/>
         <c:scaling>
@@ -1754,6 +1771,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1818,6 +1888,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Story Points (SP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1852,6 +1975,122 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1094115616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>user</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> stories (US)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241629968"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1241629968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1094115616"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1986,7 +2225,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DEV Burndown</a:t>
+              <a:t>QA Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2538,141 +2777,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'QA Burndown'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Burnt Carries (US)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'QA Burndown'!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C34D-42BC-847E-F105B09B76E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
@@ -3116,6 +3220,186 @@
           </c:ext>
         </c:extLst>
       </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QA Burndown'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Burnt Carries (US)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4B07-42DD-940B-17C15552055B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QA Burndown'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C34D-42BC-847E-F105B09B76E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1241613568"/>
+        <c:axId val="1236850288"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="629179296"/>
         <c:scaling>
@@ -3123,6 +3407,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SPrints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3187,6 +3524,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>STory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> points (SP)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3221,6 +3616,117 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1236850288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>user stories (US)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241613568"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1241613568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1236850288"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4770,7 +5276,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5199,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0E560-D797-42BC-BC56-CF69B6E909EF}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,7 +6136,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>

--- a/data/ncis-sprint-burndowns.xlsx
+++ b/data/ncis-sprint-burndowns.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB820EE-FDAC-42FD-A82E-76FCE2DA7FAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B9FDD-4C83-45CC-9DF6-33004A8C93A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Development Burndown" sheetId="7" r:id="rId1"/>
-    <sheet name="QA Burndown" sheetId="10" r:id="rId2"/>
+    <sheet name="DEV Status" sheetId="7" r:id="rId1"/>
+    <sheet name="QA Status" sheetId="10" r:id="rId2"/>
     <sheet name="Data" sheetId="5" r:id="rId3"/>
     <sheet name="SP" sheetId="8" r:id="rId4"/>
     <sheet name="Sprints" sheetId="9" r:id="rId5"/>
@@ -617,7 +617,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Development Burndown</a:t>
+              <a:t>DEV Status</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -669,7 +669,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Development Burndown'!$C$1</c:f>
+              <c:f>'DEV Status'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -719,7 +719,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
+              <c:f>'DEV Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -767,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Development Burndown'!$C$2:$C$14</c:f>
+              <c:f>'DEV Status'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -824,7 +824,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Development Burndown'!$D$1</c:f>
+              <c:f>'DEV Status'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -874,7 +874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
+              <c:f>'DEV Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -922,7 +922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Development Burndown'!$D$2:$D$14</c:f>
+              <c:f>'DEV Status'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -996,7 +996,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Development Burndown'!$B$1</c15:sqref>
+                          <c15:sqref>'DEV Status'!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1052,7 +1052,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Development Burndown'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'DEV Status'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1106,7 +1106,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Development Burndown'!$B$2:$B$14</c15:sqref>
+                          <c15:sqref>'DEV Status'!$B$2:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1173,7 +1173,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Development Burndown'!$G$1</c:f>
+              <c:f>'DEV Status'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,7 +1202,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
+              <c:f>'DEV Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1250,7 +1250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Development Burndown'!$G$2:$G$14</c:f>
+              <c:f>'DEV Status'!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1308,7 +1308,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Development Burndown'!$H$1</c:f>
+              <c:f>'DEV Status'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,7 +1339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
+              <c:f>'DEV Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1387,7 +1387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Development Burndown'!$H$2:$H$14</c:f>
+              <c:f>'DEV Status'!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1463,7 +1463,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Development Burndown'!$F$1</c15:sqref>
+                          <c15:sqref>'DEV Status'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1498,7 +1498,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Development Burndown'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'DEV Status'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1552,7 +1552,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Development Burndown'!$F$2:$F$14</c15:sqref>
+                          <c15:sqref>'DEV Status'!$F$2:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1620,7 +1620,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Development Burndown'!$E$1</c:f>
+              <c:f>'DEV Status'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1650,7 +1650,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Development Burndown'!$A$2:$A$14</c:f>
+              <c:f>'DEV Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1698,7 +1698,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Development Burndown'!$E$2:$E$14</c:f>
+              <c:f>'DEV Status'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2086,6 +2086,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1094115616"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2225,7 +2226,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>QA Burndown</a:t>
+              <a:t>QA Status</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2277,7 +2278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'QA Burndown'!$C$1</c:f>
+              <c:f>'QA Status'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2327,7 +2328,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:f>'QA Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2375,7 +2376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QA Burndown'!$C$2:$C$14</c:f>
+              <c:f>'QA Status'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2432,7 +2433,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'QA Burndown'!$D$1</c:f>
+              <c:f>'QA Status'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2482,7 +2483,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:f>'QA Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2530,7 +2531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QA Burndown'!$D$2:$D$14</c:f>
+              <c:f>'QA Status'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2604,7 +2605,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'QA Burndown'!$B$1</c15:sqref>
+                          <c15:sqref>'QA Status'!$B$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2660,7 +2661,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'QA Burndown'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'QA Status'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2714,7 +2715,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'QA Burndown'!$B$2:$B$14</c15:sqref>
+                          <c15:sqref>'QA Status'!$B$2:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2781,7 +2782,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'QA Burndown'!$G$1</c:f>
+              <c:f>'QA Status'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2810,7 +2811,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:f>'QA Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2858,7 +2859,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QA Burndown'!$G$2:$G$14</c:f>
+              <c:f>'QA Status'!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2916,7 +2917,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'QA Burndown'!$H$1</c:f>
+              <c:f>'QA Status'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2947,7 +2948,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:f>'QA Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2995,7 +2996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QA Burndown'!$H$2:$H$14</c:f>
+              <c:f>'QA Status'!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3071,7 +3072,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'QA Burndown'!$F$1</c15:sqref>
+                          <c15:sqref>'QA Status'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3106,7 +3107,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'QA Burndown'!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>'QA Status'!$A$2:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3160,7 +3161,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'QA Burndown'!$F$2:$F$14</c15:sqref>
+                          <c15:sqref>'QA Status'!$F$2:$F$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3228,7 +3229,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'QA Burndown'!$E$1</c:f>
+              <c:f>'QA Status'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3286,7 +3287,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'QA Burndown'!$A$2:$A$14</c:f>
+              <c:f>'QA Status'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3334,7 +3335,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QA Burndown'!$E$2:$E$14</c:f>
+              <c:f>'QA Status'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3722,6 +3723,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1236850288"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5276,7 +5278,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,7 +5708,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/ncis-sprint-burndowns.xlsx
+++ b/data/ncis-sprint-burndowns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B9FDD-4C83-45CC-9DF6-33004A8C93A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901685F5-343D-4648-9169-3F24052836B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEV Status" sheetId="7" r:id="rId1"/>
@@ -597,19 +597,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -635,19 +629,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1778,10 +1766,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1809,10 +1798,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1832,9 +1822,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1848,8 +1838,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1878,9 +1869,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1895,10 +1886,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1926,10 +1918,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1959,8 +1952,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1989,10 +1983,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2002,13 +1997,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>user</a:t>
+                  <a:t>user stories (US)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> stories (US)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2025,10 +2015,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2041,7 +2032,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2058,8 +2049,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2082,7 +2074,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1094115616"/>
@@ -2117,8 +2109,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2142,28 +2135,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2206,19 +2188,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2244,19 +2220,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3263,22 +3233,6 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="34925" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-4B07-42DD-940B-17C15552055B}"/>
@@ -3415,10 +3369,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3446,10 +3401,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3469,9 +3425,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3485,8 +3441,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3515,9 +3472,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3532,10 +3489,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3545,13 +3503,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>STory</a:t>
+                  <a:t>STory points (SP)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> points (SP)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3568,10 +3521,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3601,8 +3555,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3631,10 +3586,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3662,10 +3618,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3678,7 +3635,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3695,8 +3652,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3719,7 +3677,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1236850288"/>
@@ -3754,8 +3712,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3779,28 +3738,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3903,33 +3851,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3937,44 +3887,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3993,6 +3936,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4081,18 +4032,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4102,33 +4056,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4144,7 +4085,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4160,8 +4104,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4173,7 +4118,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4186,9 +4131,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4203,13 +4148,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4223,7 +4169,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4237,13 +4186,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4252,8 +4202,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4263,7 +4214,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -4271,7 +4222,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4279,16 +4230,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4301,14 +4253,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4320,19 +4272,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4341,7 +4286,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -4356,8 +4301,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4367,29 +4313,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4398,8 +4334,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4409,40 +4346,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4450,44 +4389,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4506,6 +4438,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4594,18 +4534,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4615,33 +4558,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4657,7 +4587,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4673,8 +4606,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4686,7 +4620,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4699,9 +4633,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4716,13 +4650,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4736,7 +4671,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4750,13 +4688,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4765,8 +4704,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4776,7 +4716,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -4784,7 +4724,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4792,16 +4732,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4814,14 +4755,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4833,19 +4774,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4854,7 +4788,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -4869,8 +4803,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4880,29 +4815,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4911,8 +4836,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4922,7 +4848,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5277,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5707,8 +5633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0E560-D797-42BC-BC56-CF69B6E909EF}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7132,7 +7058,7 @@
       </c>
       <c r="T14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -7960,7 +7886,7 @@
       </c>
       <c r="T26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -8146,7 +8072,7 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -8278,7 +8204,7 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -8423,7 +8349,7 @@
       </c>
       <c r="T33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -8492,7 +8418,7 @@
       </c>
       <c r="T34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -8549,7 +8475,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R35" s="5"/>
       <c r="T35" s="8">
@@ -8610,7 +8536,7 @@
       </c>
       <c r="Q36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T36" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -8890,7 +8816,7 @@
       </c>
       <c r="T40" s="8">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -8943,7 +8869,7 @@
       </c>
       <c r="Q41" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T41" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9016,7 +8942,7 @@
       </c>
       <c r="T42" s="8">
         <f t="shared" ca="1" si="57"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -9085,7 +9011,7 @@
       </c>
       <c r="T43" s="8">
         <f t="shared" ca="1" si="57"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -9151,7 +9077,7 @@
       </c>
       <c r="T44" s="8">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -9204,7 +9130,7 @@
       </c>
       <c r="Q45" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T45" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9267,7 +9193,7 @@
       </c>
       <c r="Q46" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T46" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9330,7 +9256,7 @@
       </c>
       <c r="Q47" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T47" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9450,7 +9376,7 @@
       </c>
       <c r="Q49" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T49" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9507,7 +9433,7 @@
       </c>
       <c r="Q50" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T50" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9570,7 +9496,7 @@
       </c>
       <c r="Q51" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T51" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9592,7 +9518,7 @@
       </c>
       <c r="E52" s="8">
         <f ca="1">VLOOKUP(Q52,SP!A$2:$C$9,3)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F52" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N52)/(Sprints!$B$2:$B$20&gt;=N52),Sprints!$C$2:$C$20)</f>
@@ -9633,7 +9559,7 @@
       </c>
       <c r="Q52" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T52" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9655,7 +9581,7 @@
       </c>
       <c r="E53" s="8">
         <f ca="1">VLOOKUP(Q53,SP!A$2:$C$9,3)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F53" s="8">
         <f>LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N53)/(Sprints!$B$2:$B$20&gt;=N53),Sprints!$C$2:$C$20)</f>
@@ -9696,7 +9622,7 @@
       </c>
       <c r="Q53" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T53" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9759,7 +9685,7 @@
       </c>
       <c r="Q54" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T54" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9952,7 +9878,7 @@
       </c>
       <c r="Q57" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T57" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -9974,7 +9900,7 @@
       </c>
       <c r="E58" s="8">
         <f ca="1">VLOOKUP(Q58,SP!A$2:$C$9,3)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" s="8">
         <f ca="1">LOOKUP(2,1/(Sprints!$A$2:$A$20&lt;=N58)/(Sprints!$B$2:$B$20&gt;=N58),Sprints!$C$2:$C$20)</f>
@@ -10015,7 +9941,7 @@
       </c>
       <c r="Q58" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T58" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -10078,7 +10004,7 @@
       </c>
       <c r="Q59" s="8">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T59" s="8">
         <f t="shared" ca="1" si="57"/>
@@ -10511,11 +10437,11 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="B20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="C20">
         <v>18</v>

--- a/data/ncis-sprint-burndowns.xlsx
+++ b/data/ncis-sprint-burndowns.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901685F5-343D-4648-9169-3F24052836B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FF3BF-63C1-4D1C-87A9-145DEA045730}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEV Status" sheetId="7" r:id="rId1"/>
-    <sheet name="QA Status" sheetId="10" r:id="rId2"/>
-    <sheet name="Data" sheetId="5" r:id="rId3"/>
-    <sheet name="SP" sheetId="8" r:id="rId4"/>
-    <sheet name="Sprints" sheetId="9" r:id="rId5"/>
+    <sheet name="EPIC Status" sheetId="11" r:id="rId1"/>
+    <sheet name="DEV Status" sheetId="7" r:id="rId2"/>
+    <sheet name="QA Status" sheetId="10" r:id="rId3"/>
+    <sheet name="Data" sheetId="5" r:id="rId4"/>
+    <sheet name="SP" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprints" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$B$1:$L$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data!$B$1:$L$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="138">
   <si>
     <t>Backlog Sprint</t>
   </si>
@@ -448,6 +449,12 @@
   </si>
   <si>
     <t>READY</t>
+  </si>
+  <si>
+    <t>Backlog (Epics)</t>
+  </si>
+  <si>
+    <t>Ready (Epics)</t>
   </si>
 </sst>
 </file>
@@ -577,6 +584,628 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EPIC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Status</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EPIC Status'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backlog (Epics)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EPIC Status'!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EPIC Status'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E7E-480D-91C9-22B4DF61EB2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EPIC Status'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ready (Epics)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EPIC Status'!$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EPIC Status'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E7E-480D-91C9-22B4DF61EB2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="800124863"/>
+        <c:axId val="902466623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="800124863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902466623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="902466623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epics</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="800124863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2167,7 +2796,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3850,8 +4479,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3862,7 +4531,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3875,7 +4544,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -3892,7 +4561,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3908,7 +4577,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3952,20 +4621,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3974,13 +4643,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3992,10 +4661,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -4004,17 +4673,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -4118,8 +4786,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4209,20 +4883,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4235,17 +4909,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4277,7 +4940,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4286,13 +4949,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4346,8 +5010,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4854,7 +5524,550 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="352">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD0867F-E2B9-457A-8C41-93D78D3C80B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4895,7 +6108,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5200,10 +6413,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6340498-5864-4D42-B791-302F89C00490}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>172</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF9B5FC-B68C-490C-BD95-2891DA1E6071}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
@@ -5629,7 +6881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0E560-D797-42BC-BC56-CF69B6E909EF}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -6059,7 +7311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C989A-0DB4-4957-8B7C-55617C9397A2}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T60"/>
@@ -10091,7 +11343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA68DE-49B5-450C-B56C-8FE4562D72A6}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -10211,7 +11463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B002830-2D91-48C2-9C27-20C71EEBA17A}">
   <dimension ref="A1:C20"/>
   <sheetViews>
